--- a/biology/Zoologie/Afropithecus/Afropithecus.xlsx
+++ b/biology/Zoologie/Afropithecus/Afropithecus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afropithecus turkanensis
 Afropithecus est un genre fossile de primates qui vivaient en Afrique et en Arabie saoudite du Miocène inférieur au Miocène moyen. Afropithecus turkanensis est la seule espèce connue de ce genre.
@@ -513,7 +525,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dents d'Afropithecus turkanensis portent une épaisse couverture d'émail. Il se peut qu'elle ait été nécessaire du fait du régime alimentaire d'Afropithecus, qui se composait peut-être de fruits à coque et d'autres aliments protégés par une enveloppe dure et résistante. Une telle innovation a pu jouer un rôle décisif pour permettre à Afropithecus turkanensis de prendre pied dans les forêts d'Eurasie car elle lui donnait accès à des ressources dont ne disposaient pas Proconsul et les autres singes antérieurs. 
 Il se peut qu'Afropithecus turkanensis ait présenté certaines affinités avec Heliopithecus, Kenyapithecus, et le grand hominoïde de Moroto et Napak, mais il est difficile d'être plus précis puisque peu de parties anatomiques communes ont été conservées.
